--- a/data/26/Correcion_academia.xlsx
+++ b/data/26/Correcion_academia.xlsx
@@ -429,8 +429,8 @@
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments">
   <threadedComment ref="P4" id="{54EE7951-7262-4200-6969-000000000000}" personId="{54EE7950-7262-4200-6969-000000000001}" xml:space="preserve">
-    <text xml:space="preserve">Comentario RX: Yo no veo neumatosis coli en la imagen aportada. AdemÃ¡s considero que podrÃ­a ser motivo de impugnaciÃ³n el hecho de que, en la bibliografÃ­a, se solapa el tÃ©rmino "colÃ­tis isquÃ©mica" con el de la "isquemia mesentÃ©rica no oclusiva". Ambas asociadas a situaciones de bajo gasto y pacientes aÃ±osos con FRCV. Si bien es cierto que la isquemia mesentÃ©rica no oclusiva se suele limitar a la frontera entre dos territorios vasculares (generalmente la AMS y la AMI) y la colitis isquÃ©mica es es sÃ­ misma bastante mÃ¡s frecuente.Â 
--Bouzas Sierra R, Taboada RodrÃ­guez V, Ave Seijas MJ. DiagnÃ³stico de la isquemia y la hemorragia intestinal. En: Del Cura RodrÃ­guez JL, Pedraza GutiÃ©rrez S, Gayete Cara Ã, Rovira CaÃ±ellas A, eds. RadiologÃ­a esencial. 2.Âª ed. Tomo 1. Madrid: Editorial Panamericana; 2018. p. 661-665.
+    <text xml:space="preserve">Comentario RX: Yo no veo neumatosis coli en la imagen aportada. AdemÃÂ¡s considero que podrÃÂ­a ser motivo de impugnaciÃÂ³n el hecho de que, en la bibliografÃÂ­a, se solapa el tÃÂ©rmino "colÃÂ­tis isquÃÂ©mica" con el de la "isquemia mesentÃÂ©rica no oclusiva". Ambas asociadas a situaciones de bajo gasto y pacientes aÃÂ±osos con FRCV. Si bien es cierto que la isquemia mesentÃÂ©rica no oclusiva se suele limitar a la frontera entre dos territorios vasculares (generalmente la AMS y la AMI) y la colitis isquÃÂ©mica es es sÃÂ­ misma bastante mÃÂ¡s frecuente.ÃÂ 
+-Bouzas Sierra R, Taboada RodrÃÂ­guez V, Ave Seijas MJ. DiagnÃÂ³stico de la isquemia y la hemorragia intestinal. En: Del Cura RodrÃÂ­guez JL, Pedraza GutiÃÂ©rrez S, Gayete Cara ÃÂ, Rovira CaÃÂ±ellas A, eds. RadiologÃÂ­a esencial. 2.ÃÂª ed. Tomo 1. Madrid: Editorial Panamericana; 2018. p. 661-665.
 -Sun MY, Maykel JA. Ischemic colitis. Clin Colon Rectal Surg. 2007 Feb;20(1):5-12. doi: 10.1055/s-2007-970194. PMID: 20011355; PMCID: PMC2780155.</text>
   </threadedComment>
 </ThreadedComments>
@@ -905,8 +905,8 @@
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14">
-        <v>4</v>
+      <c r="B14" t="str">
+        <v/>
       </c>
       <c r="C14" t="str">
         <v>IMAGENES</v>
@@ -1892,8 +1892,8 @@
       <c r="A51">
         <v>50</v>
       </c>
-      <c r="B51">
-        <v>2</v>
+      <c r="B51" t="str">
+        <v/>
       </c>
       <c r="C51" t="str">
         <v>GC</v>
@@ -2270,8 +2270,8 @@
       <c r="A65">
         <v>64</v>
       </c>
-      <c r="B65">
-        <v>1</v>
+      <c r="B65" t="str">
+        <v/>
       </c>
       <c r="C65" t="str">
         <v>FM</v>
@@ -4373,8 +4373,8 @@
       <c r="A140">
         <v>139</v>
       </c>
-      <c r="B140">
-        <v>1</v>
+      <c r="B140" t="str">
+        <v/>
       </c>
       <c r="C140" t="str">
         <v>MI</v>
@@ -4486,8 +4486,8 @@
       <c r="A143">
         <v>142</v>
       </c>
-      <c r="B143">
-        <v>1</v>
+      <c r="B143" t="str">
+        <v/>
       </c>
       <c r="C143" t="str">
         <v>MI</v>
@@ -5048,8 +5048,8 @@
       <c r="A162">
         <v>161</v>
       </c>
-      <c r="B162">
-        <v>3</v>
+      <c r="B162" t="str">
+        <v/>
       </c>
       <c r="C162" t="str">
         <v>NM</v>
@@ -6030,8 +6030,8 @@
       <c r="A198">
         <v>197</v>
       </c>
-      <c r="B198">
-        <v>1</v>
+      <c r="B198" t="str">
+        <v>3</v>
       </c>
       <c r="C198" t="str">
         <v>UG</v>
@@ -6364,8 +6364,8 @@
       <c r="A209">
         <v>208</v>
       </c>
-      <c r="B209">
-        <v>4</v>
+      <c r="B209" t="str">
+        <v/>
       </c>
       <c r="C209" t="str">
         <v>RESERVA</v>
